--- a/DioDocs/ExcelTemplateReport/Templates/SimpleInvoiceJP_可変明細_複数シート.xlsx
+++ b/DioDocs/ExcelTemplateReport/Templates/SimpleInvoiceJP_可変明細_複数シート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori\Downloads\DioDocsExcelReport2-master\DioDocsExcelReport2-master\DioDocsExcelReport2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori\source\github\Self-Learning\DioDocs\ExcelTemplateReport\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C781C5B-9780-41AE-9F23-5440A7F9C3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D6073B-5B31-439B-AB2B-3F4BEFFBF0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3156" yWindow="3180" windowWidth="31596" windowHeight="22140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6144" yWindow="3780" windowWidth="31596" windowHeight="22140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="{{ds.customer.companyname}}" sheetId="2" r:id="rId1"/>
@@ -280,11 +280,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>{{=E39*0.1}}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{{=E39+G39}}</t>
+    <t>{{=E21*0.1}}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{{=E21+G21}}</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -611,6 +611,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,12 +679,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="H3" s="8" t="str">
         <f ca="1">TEXT(TODAY(),"DD")&amp;"-"&amp;TEXT(NOW(),"HMM")</f>
-        <v>21-1701</v>
+        <v>21-1827</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>17</v>
@@ -1071,21 +1071,21 @@
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.5">
@@ -1152,12 +1152,12 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="7" t="s">
         <v>3</v>
       </c>
@@ -1167,47 +1167,47 @@
       <c r="G17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -1224,7 +1224,7 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="19.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="37"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="12"/>
       <c r="E21" s="13" t="s">
         <v>32</v>
@@ -1267,6 +1267,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x010100F6E1CA76AAD4564AAF106FC3CFA868360400186944AA932D8046A3B88E9B37BEBDF5" ma:contentTypeVersion="57" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="99516f8994b63f46a279aa564b61ee37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ccc0999b57010467b6aff3ba0e15941" ns2:_="">
     <xsd:import namespace="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
@@ -2304,15 +2313,6 @@
     <xs:element name="TermId" type="xs:string"/>
   </xs:schema>
 </ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2454,6 +2454,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9659279B-CA79-44FF-BF15-83F6AAD0C4E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE70CA04-6118-4D7D-973A-6229EC59A34E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2467,14 +2475,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9659279B-CA79-44FF-BF15-83F6AAD0C4E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DioDocs/ExcelTemplateReport/Templates/SimpleInvoiceJP_可変明細_複数シート.xlsx
+++ b/DioDocs/ExcelTemplateReport/Templates/SimpleInvoiceJP_可変明細_複数シート.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori\source\github\Self-Learning\DioDocs\ExcelTemplateReport\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D6073B-5B31-439B-AB2B-3F4BEFFBF0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322CFAD3-6FCC-4F58-B6FA-7F0776E793C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6144" yWindow="3780" windowWidth="31596" windowHeight="22140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11640" yWindow="3900" windowWidth="19752" windowHeight="18984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="{{ds.customer.companyname}}" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'{{ds.customer.companyname}}'!$A$1:$I$24</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -319,41 +316,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <sz val="20"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -593,11 +590,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -606,33 +601,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1019,13 +1016,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1053A96D-B188-418B-9687-0CDB0FEDD269}">
-  <dimension ref="A1:J21"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="10.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
@@ -1037,37 +1037,37 @@
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="H1" s="3" t="s">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44368</v>
-      </c>
-      <c r="J1" s="5"/>
+        <v>44371</v>
+      </c>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="H2" s="7" t="s">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="8" t="str">
+      <c r="H3" s="6" t="str">
         <f ca="1">TEXT(TODAY(),"DD")&amp;"-"&amp;TEXT(NOW(),"HMM")</f>
-        <v>21-1827</v>
-      </c>
-      <c r="I3" s="9" t="s">
+        <v>24-1723</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1086,14 +1086,15 @@
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1104,23 +1105,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="F12" s="2"/>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="9"/>
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1128,8 +1129,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="F13" s="2"/>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="9"/>
       <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1137,8 +1138,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="F14" s="2"/>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="9"/>
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,25 +1147,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="22" t="s">
@@ -1172,7 +1174,7 @@
       </c>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>37</v>
       </c>
@@ -1193,7 +1195,7 @@
       </c>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>33</v>
       </c>
@@ -1206,7 +1208,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1223,7 +1225,7 @@
       </c>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" ht="19.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="16"/>
       <c r="D21" s="12"/>
       <c r="E21" s="13" t="s">
@@ -1238,6 +1240,85 @@
         <v>39</v>
       </c>
     </row>
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C20:C21"/>
@@ -1254,1068 +1335,12 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="50" max="8" man="1"/>
-    <brk id="100" max="8" man="1"/>
-  </rowBreaks>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="9" max="53" man="1"/>
-  </colBreaks>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x010100F6E1CA76AAD4564AAF106FC3CFA868360400186944AA932D8046A3B88E9B37BEBDF5" ma:contentTypeVersion="57" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="99516f8994b63f46a279aa564b61ee37">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ccc0999b57010467b6aff3ba0e15941" ns2:_="">
-    <xsd:import namespace="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:AcquiredFrom" minOccurs="0"/>
-                <xsd:element ref="ns2:UACurrentWords" minOccurs="0"/>
-                <xsd:element ref="ns2:TPApplication" minOccurs="0"/>
-                <xsd:element ref="ns2:ApprovalLog" minOccurs="0"/>
-                <xsd:element ref="ns2:ApprovalStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:AssetStart" minOccurs="0"/>
-                <xsd:element ref="ns2:AssetExpire" minOccurs="0"/>
-                <xsd:element ref="ns2:AssetId" minOccurs="0"/>
-                <xsd:element ref="ns2:IsSearchable" minOccurs="0"/>
-                <xsd:element ref="ns2:AssetType" minOccurs="0"/>
-                <xsd:element ref="ns2:APAuthor" minOccurs="0"/>
-                <xsd:element ref="ns2:AverageRating" minOccurs="0"/>
-                <xsd:element ref="ns2:BlockPublish" minOccurs="0"/>
-                <xsd:element ref="ns2:BugNumber" minOccurs="0"/>
-                <xsd:element ref="ns2:CampaignTagsTaxHTField0" minOccurs="0"/>
-                <xsd:element ref="ns2:TPClientViewer" minOccurs="0"/>
-                <xsd:element ref="ns2:ClipArtFilename" minOccurs="0"/>
-                <xsd:element ref="ns2:TPCommandLine" minOccurs="0"/>
-                <xsd:element ref="ns2:TPComponent" minOccurs="0"/>
-                <xsd:element ref="ns2:ContentItem" minOccurs="0"/>
-                <xsd:element ref="ns2:CrawlForDependencies" minOccurs="0"/>
-                <xsd:element ref="ns2:CSXHash" minOccurs="0"/>
-                <xsd:element ref="ns2:CSXSubmissionMarket" minOccurs="0"/>
-                <xsd:element ref="ns2:CSXUpdate" minOccurs="0"/>
-                <xsd:element ref="ns2:IntlLangReviewDate" minOccurs="0"/>
-                <xsd:element ref="ns2:IsDeleted" minOccurs="0"/>
-                <xsd:element ref="ns2:APDescription" minOccurs="0"/>
-                <xsd:element ref="ns2:DirectSourceMarket" minOccurs="0"/>
-                <xsd:element ref="ns2:Downloads" minOccurs="0"/>
-                <xsd:element ref="ns2:DSATActionTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:APEditor" minOccurs="0"/>
-                <xsd:element ref="ns2:EditorialStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:EditorialTags" minOccurs="0"/>
-                <xsd:element ref="ns2:TPExecutable" minOccurs="0"/>
-                <xsd:element ref="ns2:FeatureTagsTaxHTField0" minOccurs="0"/>
-                <xsd:element ref="ns2:TPFriendlyName" minOccurs="0"/>
-                <xsd:element ref="ns2:FriendlyTitle" minOccurs="0"/>
-                <xsd:element ref="ns2:PrimaryImageGen" minOccurs="0"/>
-                <xsd:element ref="ns2:HandoffToMSDN" minOccurs="0"/>
-                <xsd:element ref="ns2:InProjectListLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:TPInstallLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:InternalTagsTaxHTField0" minOccurs="0"/>
-                <xsd:element ref="ns2:IntlLangReview" minOccurs="0"/>
-                <xsd:element ref="ns2:IntlLangReviewer" minOccurs="0"/>
-                <xsd:element ref="ns2:MarketSpecific" minOccurs="0"/>
-                <xsd:element ref="ns2:LastCompleteVersionLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastHandOff" minOccurs="0"/>
-                <xsd:element ref="ns2:LastModifiedDateTime" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewErrorLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewResultLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewAttemptDateLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewedByLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewTimeLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewVersionLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishErrorLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishResultLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishAttemptDateLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishedByLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishTimeLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishVersionLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:TPLaunchHelpLinkType" minOccurs="0"/>
-                <xsd:element ref="ns2:LegacyData" minOccurs="0"/>
-                <xsd:element ref="ns2:TPLaunchHelpLink" minOccurs="0"/>
-                <xsd:element ref="ns2:LocComments" minOccurs="0"/>
-                <xsd:element ref="ns2:LocLastLocAttemptVersionLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocLastLocAttemptVersionTypeLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocManualTestRequired" minOccurs="0"/>
-                <xsd:element ref="ns2:LocMarketGroupTiers2" minOccurs="0"/>
-                <xsd:element ref="ns2:LocNewPublishedVersionLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocOverallHandbackStatusLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocOverallLocStatusLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocOverallPreviewStatusLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocOverallPublishStatusLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:IntlLocPriority" minOccurs="0"/>
-                <xsd:element ref="ns2:LocProcessedForHandoffsLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocProcessedForMarketsLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocPublishedDependentAssetsLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocPublishedLinkedAssetsLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocRecommendedHandoff" minOccurs="0"/>
-                <xsd:element ref="ns2:LocalizationTagsTaxHTField0" minOccurs="0"/>
-                <xsd:element ref="ns2:MachineTranslated" minOccurs="0"/>
-                <xsd:element ref="ns2:Manager" minOccurs="0"/>
-                <xsd:element ref="ns2:Markets" minOccurs="0"/>
-                <xsd:element ref="ns2:Milestone" minOccurs="0"/>
-                <xsd:element ref="ns2:TPNamespace" minOccurs="0"/>
-                <xsd:element ref="ns2:NumericId" minOccurs="0"/>
-                <xsd:element ref="ns2:NumOfRatingsLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:OOCacheId" minOccurs="0"/>
-                <xsd:element ref="ns2:OpenTemplate" minOccurs="0"/>
-                <xsd:element ref="ns2:OriginAsset" minOccurs="0"/>
-                <xsd:element ref="ns2:OriginalRelease" minOccurs="0"/>
-                <xsd:element ref="ns2:OriginalSourceMarket" minOccurs="0"/>
-                <xsd:element ref="ns2:OutputCachingOn" minOccurs="0"/>
-                <xsd:element ref="ns2:ParentAssetId" minOccurs="0"/>
-                <xsd:element ref="ns2:PlannedPubDate" minOccurs="0"/>
-                <xsd:element ref="ns2:PolicheckWords" minOccurs="0"/>
-                <xsd:element ref="ns2:BusinessGroup" minOccurs="0"/>
-                <xsd:element ref="ns2:UAProjectedTotalWords" minOccurs="0"/>
-                <xsd:element ref="ns2:Provider" minOccurs="0"/>
-                <xsd:element ref="ns2:Providers" minOccurs="0"/>
-                <xsd:element ref="ns2:PublishStatusLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:PublishTargets" minOccurs="0"/>
-                <xsd:element ref="ns2:RecommendationsModifier" minOccurs="0"/>
-                <xsd:element ref="ns2:ArtSampleDocs" minOccurs="0"/>
-                <xsd:element ref="ns2:ScenarioTagsTaxHTField0" minOccurs="0"/>
-                <xsd:element ref="ns2:ShowIn" minOccurs="0"/>
-                <xsd:element ref="ns2:SourceTitle" minOccurs="0"/>
-                <xsd:element ref="ns2:CSXSubmissionDate" minOccurs="0"/>
-                <xsd:element ref="ns2:SubmitterId" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
-                <xsd:element ref="ns2:TemplateStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:TemplateTemplateType" minOccurs="0"/>
-                <xsd:element ref="ns2:ThumbnailAssetId" minOccurs="0"/>
-                <xsd:element ref="ns2:TimesCloned" minOccurs="0"/>
-                <xsd:element ref="ns2:TrustLevel" minOccurs="0"/>
-                <xsd:element ref="ns2:UALocComments" minOccurs="0"/>
-                <xsd:element ref="ns2:UALocRecommendation" minOccurs="0"/>
-                <xsd:element ref="ns2:UANotes" minOccurs="0"/>
-                <xsd:element ref="ns2:TPAppVersion" minOccurs="0"/>
-                <xsd:element ref="ns2:VoteCount" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="AcquiredFrom" ma:index="1" nillable="true" ma:displayName="Acquired From" ma:default="Internal MS" ma:internalName="AcquiredFrom" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Internal MS"/>
-          <xsd:enumeration value="Community"/>
-          <xsd:enumeration value="MVP"/>
-          <xsd:enumeration value="Publisher"/>
-          <xsd:enumeration value="Partner"/>
-          <xsd:enumeration value="None"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UACurrentWords" ma:index="2" nillable="true" ma:displayName="Actual Word Count" ma:default="" ma:internalName="UACurrentWords" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPApplication" ma:index="3" nillable="true" ma:displayName="Application to Open Template With" ma:default="" ma:internalName="TPApplication">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ApprovalLog" ma:index="4" nillable="true" ma:displayName="Approval Log" ma:default="" ma:hidden="true" ma:internalName="ApprovalLog" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ApprovalStatus" ma:index="5" nillable="true" ma:displayName="Approval Status" ma:default="InProgress" ma:internalName="ApprovalStatus" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="InProgress"/>
-          <xsd:enumeration value="Rejected"/>
-          <xsd:enumeration value="Questionable"/>
-          <xsd:enumeration value="ApprovedAutomatic"/>
-          <xsd:enumeration value="ApprovedManual"/>
-          <xsd:enumeration value="On Hold"/>
-          <xsd:enumeration value="Needs Review"/>
-          <xsd:enumeration value="A Violation"/>
-          <xsd:enumeration value="Unpublished Violation"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="AssetStart" ma:index="6" nillable="true" ma:displayName="Asset Begin Date" ma:default="[Today]" ma:internalName="AssetStart" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="AssetExpire" ma:index="7" nillable="true" ma:displayName="Asset End Date" ma:default="2029-01-01T00:00:00Z" ma:internalName="AssetExpire" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="AssetId" ma:index="8" nillable="true" ma:displayName="Asset ID" ma:default="" ma:indexed="true" ma:internalName="AssetId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="IsSearchable" ma:index="9" nillable="true" ma:displayName="Asset Searchable?" ma:default="true" ma:internalName="IsSearchable" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="AssetType" ma:index="10" nillable="true" ma:displayName="Asset Type" ma:default="" ma:internalName="AssetType" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="APAuthor" ma:index="11" nillable="true" ma:displayName="Author" ma:default="" ma:list="UserInfo" ma:internalName="APAuthor" ma:readOnly="false">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:User">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="AverageRating" ma:index="12" nillable="true" ma:displayName="Average Rating" ma:internalName="AverageRating" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="BlockPublish" ma:index="13" nillable="true" ma:displayName="Block from Publishing?" ma:default="" ma:internalName="BlockPublish" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="BugNumber" ma:index="14" nillable="true" ma:displayName="Bug Number" ma:default="" ma:internalName="BugNumber" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CampaignTagsTaxHTField0" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="CampaignTagsTaxHTField0" ma:taxonomyFieldName="CampaignTags" ma:displayName="Campaigns" ma:readOnly="false" ma:default="" ma:fieldId="{04032b9e-8ee6-4e89-b9db-4ffff205d025}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="ca0e50d4-faa1-44ce-961e-bb1441c60e66" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TPClientViewer" ma:index="17" nillable="true" ma:displayName="Client Viewer" ma:default="" ma:internalName="TPClientViewer">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ClipArtFilename" ma:index="18" nillable="true" ma:displayName="Clip Art Name" ma:default="" ma:internalName="ClipArtFilename" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPCommandLine" ma:index="19" nillable="true" ma:displayName="Command Line" ma:default="" ma:internalName="TPCommandLine">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPComponent" ma:index="20" nillable="true" ma:displayName="Component" ma:default="" ma:internalName="TPComponent">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ContentItem" ma:index="21" nillable="true" ma:displayName="Content Item" ma:default="" ma:hidden="true" ma:internalName="ContentItem" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CrawlForDependencies" ma:index="23" nillable="true" ma:displayName="Crawl for Dependencies?" ma:default="true" ma:internalName="CrawlForDependencies" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CSXHash" ma:index="26" nillable="true" ma:displayName="CSX Hash" ma:default="" ma:indexed="true" ma:internalName="CSXHash" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CSXSubmissionMarket" ma:index="27" nillable="true" ma:displayName="CSX Submission Market" ma:default="" ma:list="{388FC2BA-F530-4FF7-911A-621CAE6AFBD3}" ma:internalName="CSXSubmissionMarket" ma:readOnly="false" ma:showField="MarketName" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CSXUpdate" ma:index="28" nillable="true" ma:displayName="CSX Updated?" ma:default="false" ma:internalName="CSXUpdate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="IntlLangReviewDate" ma:index="29" nillable="true" ma:displayName="Date to Complete Intl QA" ma:default="" ma:internalName="IntlLangReviewDate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="IsDeleted" ma:index="30" nillable="true" ma:displayName="Deleted?" ma:default="" ma:internalName="IsDeleted" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="APDescription" ma:index="31" nillable="true" ma:displayName="Description" ma:default="" ma:internalName="APDescription" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="DirectSourceMarket" ma:index="32" nillable="true" ma:displayName="Direct Source Market Group" ma:default="" ma:internalName="DirectSourceMarket" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Downloads" ma:index="33" nillable="true" ma:displayName="Downloads" ma:default="0" ma:hidden="true" ma:internalName="Downloads" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="DSATActionTaken" ma:index="34" nillable="true" ma:displayName="DSAT Action Taken" ma:default="" ma:internalName="DSATActionTaken" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Best Bets"/>
-          <xsd:enumeration value="Expire"/>
-          <xsd:enumeration value="Hide"/>
-          <xsd:enumeration value="None"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="APEditor" ma:index="35" nillable="true" ma:displayName="Editor" ma:default="" ma:list="UserInfo" ma:internalName="APEditor" ma:readOnly="false">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:User">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="EditorialStatus" ma:index="36" nillable="true" ma:displayName="Editorial Status" ma:default="" ma:internalName="EditorialStatus" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="EditorialTags" ma:index="37" nillable="true" ma:displayName="Editorial Tags" ma:default="" ma:internalName="EditorialTags">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPExecutable" ma:index="38" nillable="true" ma:displayName="Executable" ma:default="" ma:internalName="TPExecutable">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="FeatureTagsTaxHTField0" ma:index="40" nillable="true" ma:taxonomy="true" ma:internalName="FeatureTagsTaxHTField0" ma:taxonomyFieldName="FeatureTags" ma:displayName="Features" ma:readOnly="false" ma:default="" ma:fieldId="{5dcf7547-996b-4a0e-b7d1-0f761d14131b}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="f1ab6845-967d-4854-a0ba-4ec07f0f8113" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TPFriendlyName" ma:index="41" nillable="true" ma:displayName="Friendly Name" ma:default="" ma:internalName="TPFriendlyName">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="FriendlyTitle" ma:index="42" nillable="true" ma:displayName="Friendly Title" ma:default="" ma:description="Shorter title to be used when displaying search results" ma:internalName="FriendlyTitle" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="PrimaryImageGen" ma:index="43" nillable="true" ma:displayName="Generate Images?" ma:default="true" ma:internalName="PrimaryImageGen">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="HandoffToMSDN" ma:index="44" nillable="true" ma:displayName="Handoff To MSDN Date" ma:default="" ma:internalName="HandoffToMSDN" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="InProjectListLookup" ma:index="45" nillable="true" ma:displayName="InProjectListLookup" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="InProjectListLookup" ma:readOnly="true" ma:showField="InProjectList" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TPInstallLocation" ma:index="46" nillable="true" ma:displayName="Install Location" ma:default="" ma:internalName="TPInstallLocation">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="InternalTagsTaxHTField0" ma:index="48" nillable="true" ma:taxonomy="true" ma:internalName="InternalTagsTaxHTField0" ma:taxonomyFieldName="InternalTags" ma:displayName="Internal Tags" ma:readOnly="false" ma:default="" ma:fieldId="{e5aec8e1-0842-4156-acaa-2defcf90540a}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="82b6639e-f7fc-4c18-ad2d-003a6e707765" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="IntlLangReview" ma:index="49" nillable="true" ma:displayName="Intl Lang QA Review Required?" ma:default="" ma:internalName="IntlLangReview" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="IntlLangReviewer" ma:index="50" nillable="true" ma:displayName="Intl Lang QA Reviewer" ma:default="" ma:internalName="IntlLangReviewer" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MarketSpecific" ma:index="51" nillable="true" ma:displayName="Is Market Specific?" ma:default="" ma:internalName="MarketSpecific" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LastCompleteVersionLookup" ma:index="52" nillable="true" ma:displayName="Last Complete Version Lookup" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastCompleteVersionLookup" ma:readOnly="true" ma:showField="LastCompleteVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastHandOff" ma:index="53" nillable="true" ma:displayName="Last Hand-off" ma:default="" ma:internalName="LastHandOff" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LastModifiedDateTime" ma:index="54" nillable="true" ma:displayName="Last Modified Date" ma:default="" ma:internalName="LastModifiedDateTime" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LastPreviewErrorLookup" ma:index="55" nillable="true" ma:displayName="Last Preview Attempt Error" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewErrorLookup" ma:readOnly="true" ma:showField="LastPreviewError" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPreviewResultLookup" ma:index="56" nillable="true" ma:displayName="Last Preview Attempt Result" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewResultLookup" ma:readOnly="true" ma:showField="LastPreviewResult" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPreviewAttemptDateLookup" ma:index="57" nillable="true" ma:displayName="Last Preview Attempted On" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewAttemptDateLookup" ma:readOnly="true" ma:showField="LastPreviewAttemptDate" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPreviewedByLookup" ma:index="58" nillable="true" ma:displayName="Last Previewed By" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewedByLookup" ma:readOnly="true" ma:showField="LastPreviewedBy" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPreviewTimeLookup" ma:index="59" nillable="true" ma:displayName="Last Previewed Date" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewTimeLookup" ma:readOnly="true" ma:showField="LastPreviewTime" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPreviewVersionLookup" ma:index="60" nillable="true" ma:displayName="Last Previewed Version" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewVersionLookup" ma:readOnly="true" ma:showField="LastPreviewVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishErrorLookup" ma:index="61" nillable="true" ma:displayName="Last Publish Attempt Error" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishErrorLookup" ma:readOnly="true" ma:showField="LastPublishError" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishResultLookup" ma:index="62" nillable="true" ma:displayName="Last Publish Attempt Result" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishResultLookup" ma:readOnly="true" ma:showField="LastPublishResult" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishAttemptDateLookup" ma:index="63" nillable="true" ma:displayName="Last Publish Attempted On" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishAttemptDateLookup" ma:readOnly="true" ma:showField="LastPublishAttemptDate" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishedByLookup" ma:index="64" nillable="true" ma:displayName="Last Published By" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishedByLookup" ma:readOnly="true" ma:showField="LastPublishedBy" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishTimeLookup" ma:index="65" nillable="true" ma:displayName="Last Published Date" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishTimeLookup" ma:readOnly="true" ma:showField="LastPublishTime" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishVersionLookup" ma:index="66" nillable="true" ma:displayName="Last Published Version" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishVersionLookup" ma:readOnly="true" ma:showField="LastPublishVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TPLaunchHelpLinkType" ma:index="67" nillable="true" ma:displayName="Launch Help Link Type" ma:default="Template" ma:internalName="TPLaunchHelpLinkType">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Template"/>
-          <xsd:enumeration value="Training"/>
-          <xsd:enumeration value="URL"/>
-          <xsd:enumeration value="None"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LegacyData" ma:index="68" nillable="true" ma:displayName="Legacy Data" ma:default="" ma:internalName="LegacyData" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPLaunchHelpLink" ma:index="69" nillable="true" ma:displayName="Link to Launch Help Topic" ma:default="" ma:internalName="TPLaunchHelpLink">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocComments" ma:index="70" nillable="true" ma:displayName="Loc Approval Comments" ma:default="" ma:internalName="LocComments" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocLastLocAttemptVersionLookup" ma:index="71" nillable="true" ma:displayName="Loc Last Loc Attempt Version" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocLastLocAttemptVersionLookup" ma:readOnly="false" ma:showField="LastLocAttemptVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocLastLocAttemptVersionTypeLookup" ma:index="72" nillable="true" ma:displayName="Loc Last Loc Attempt Version Type" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocLastLocAttemptVersionTypeLookup" ma:readOnly="true" ma:showField="LastLocAttemptVersionType" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocManualTestRequired" ma:index="73" nillable="true" ma:displayName="Loc Manual Test Required" ma:default="" ma:internalName="LocManualTestRequired" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocMarketGroupTiers2" ma:index="74" nillable="true" ma:displayName="Loc Market Group Tiers" ma:internalName="LocMarketGroupTiers2" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocNewPublishedVersionLookup" ma:index="75" nillable="true" ma:displayName="Loc New Published Version Lookup" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocNewPublishedVersionLookup" ma:readOnly="true" ma:showField="NewPublishedVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocOverallHandbackStatusLookup" ma:index="76" nillable="true" ma:displayName="Loc Overall Handback Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallHandbackStatusLookup" ma:readOnly="true" ma:showField="OverallHandbackStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocOverallLocStatusLookup" ma:index="77" nillable="true" ma:displayName="Loc Overall Localize Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallLocStatusLookup" ma:readOnly="true" ma:showField="OverallLocStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocOverallPreviewStatusLookup" ma:index="78" nillable="true" ma:displayName="Loc Overall Preview Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallPreviewStatusLookup" ma:readOnly="true" ma:showField="OverallPreviewStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocOverallPublishStatusLookup" ma:index="79" nillable="true" ma:displayName="Loc Overall Publish Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallPublishStatusLookup" ma:readOnly="true" ma:showField="OverallPublishStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="IntlLocPriority" ma:index="80" nillable="true" ma:displayName="Loc Priority" ma:default="" ma:internalName="IntlLocPriority" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocProcessedForHandoffsLookup" ma:index="81" nillable="true" ma:displayName="Loc Processed For Handoffs" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocProcessedForHandoffsLookup" ma:readOnly="true" ma:showField="ProcessedForHandoffs" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocProcessedForMarketsLookup" ma:index="82" nillable="true" ma:displayName="Loc Processed For Markets" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocProcessedForMarketsLookup" ma:readOnly="true" ma:showField="ProcessedForMarkets" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocPublishedDependentAssetsLookup" ma:index="83" nillable="true" ma:displayName="Loc Published Dependent Assets" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocPublishedDependentAssetsLookup" ma:readOnly="true" ma:showField="PublishedDependentAssets" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocPublishedLinkedAssetsLookup" ma:index="84" nillable="true" ma:displayName="Loc Published Linked Assets" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocPublishedLinkedAssetsLookup" ma:readOnly="true" ma:showField="PublishedLinkedAssets" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocRecommendedHandoff" ma:index="85" nillable="true" ma:displayName="Loc Recommended Handoff" ma:default="" ma:indexed="true" ma:internalName="LocRecommendedHandoff" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocalizationTagsTaxHTField0" ma:index="87" nillable="true" ma:taxonomy="true" ma:internalName="LocalizationTagsTaxHTField0" ma:taxonomyFieldName="LocalizationTags" ma:displayName="Localization Tags" ma:readOnly="false" ma:default="" ma:fieldId="{28ca5b26-415b-4822-b35b-d9a845b1b83b}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="5b7703a5-8e8b-4b58-8b31-1cea35331da3" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MachineTranslated" ma:index="88" nillable="true" ma:displayName="Machine Translated" ma:default="" ma:internalName="MachineTranslated" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Manager" ma:index="89" nillable="true" ma:displayName="Manager" ma:hidden="true" ma:internalName="Manager" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Markets" ma:index="90" nillable="true" ma:displayName="Markets" ma:default="" ma:description="Leave blank to show in all markets" ma:list="{388FC2BA-F530-4FF7-911A-621CAE6AFBD3}" ma:internalName="Markets" ma:readOnly="false" ma:showField="MarketName" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="Milestone" ma:index="91" nillable="true" ma:displayName="Milestone" ma:default="" ma:internalName="Milestone" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPNamespace" ma:index="94" nillable="true" ma:displayName="Namespace" ma:default="" ma:internalName="TPNamespace">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="NumericId" ma:index="95" nillable="true" ma:displayName="Numeric ID" ma:default="" ma:indexed="true" ma:internalName="NumericId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="NumOfRatingsLookup" ma:index="96" nillable="true" ma:displayName="NumOfRatings" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="NumOfRatingsLookup" ma:readOnly="true" ma:showField="NumOfRatings" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="OOCacheId" ma:index="97" nillable="true" ma:displayName="OOCacheId" ma:internalName="OOCacheId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="OpenTemplate" ma:index="98" nillable="true" ma:displayName="Open Template" ma:default="true" ma:internalName="OpenTemplate">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="OriginAsset" ma:index="99" nillable="true" ma:displayName="Origin Asset" ma:default="" ma:internalName="OriginAsset" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="OriginalRelease" ma:index="100" nillable="true" ma:displayName="Original Release" ma:default="15" ma:internalName="OriginalRelease" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="14"/>
-          <xsd:enumeration value="15"/>
-          <xsd:enumeration value="16"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="OriginalSourceMarket" ma:index="101" nillable="true" ma:displayName="Original Source Market Group" ma:default="" ma:internalName="OriginalSourceMarket" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="OutputCachingOn" ma:index="102" nillable="true" ma:displayName="Output Caching" ma:default="true" ma:hidden="true" ma:internalName="OutputCachingOn" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ParentAssetId" ma:index="103" nillable="true" ma:displayName="Parent Asset Id" ma:default="" ma:internalName="ParentAssetId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="PlannedPubDate" ma:index="104" nillable="true" ma:displayName="Planned Publish Date" ma:default="" ma:indexed="true" ma:internalName="PlannedPubDate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="PolicheckWords" ma:index="105" nillable="true" ma:displayName="Policheck Words" ma:default="" ma:internalName="PolicheckWords" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="BusinessGroup" ma:index="106" nillable="true" ma:displayName="Product Division Owner" ma:default="" ma:internalName="BusinessGroup" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UAProjectedTotalWords" ma:index="107" nillable="true" ma:displayName="Projected Word Count" ma:default="" ma:internalName="UAProjectedTotalWords" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Provider" ma:index="108" nillable="true" ma:displayName="Provider" ma:default="" ma:internalName="Provider" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Providers" ma:index="109" nillable="true" ma:displayName="Providers" ma:default="" ma:internalName="Providers">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="PublishStatusLookup" ma:index="110" nillable="true" ma:displayName="Publish Status" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="PublishStatusLookup" ma:readOnly="false" ma:showField="PublishStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="PublishTargets" ma:index="111" nillable="true" ma:displayName="Publish Target" ma:default="OfficeOnlineVNext" ma:internalName="PublishTargets" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="RecommendationsModifier" ma:index="112" nillable="true" ma:displayName="Recommendations Modifier" ma:default="" ma:internalName="RecommendationsModifier" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ArtSampleDocs" ma:index="113" nillable="true" ma:displayName="Sample Docs" ma:default="" ma:hidden="true" ma:internalName="ArtSampleDocs" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ScenarioTagsTaxHTField0" ma:index="115" nillable="true" ma:taxonomy="true" ma:internalName="ScenarioTagsTaxHTField0" ma:taxonomyFieldName="ScenarioTags" ma:displayName="Scenarios" ma:readOnly="false" ma:default="" ma:fieldId="{1c8e7b99-44ca-46c8-84b8-12cd8d7cf8ee}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="4b7d5f16-e2f2-4fc0-bab3-6e8b931e57d6" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="ShowIn" ma:index="117" nillable="true" ma:displayName="Show In" ma:default="Show everywhere" ma:internalName="ShowIn" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Hide on web"/>
-          <xsd:enumeration value="On Web no search"/>
-          <xsd:enumeration value="Show everywhere"/>
-          <xsd:enumeration value="Special use only"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SourceTitle" ma:index="118" nillable="true" ma:displayName="Source Title" ma:default="" ma:indexed="true" ma:internalName="SourceTitle" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CSXSubmissionDate" ma:index="119" nillable="true" ma:displayName="Submission Date" ma:default="" ma:internalName="CSXSubmissionDate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SubmitterId" ma:index="120" nillable="true" ma:displayName="Submitter ID" ma:default="" ma:internalName="SubmitterId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="121" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c59171da-55f1-4c8b-8421-0d1d3f99d741}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAllLabel" ma:index="122" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{c59171da-55f1-4c8b-8421-0d1d3f99d741}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TemplateStatus" ma:index="123" nillable="true" ma:displayName="Template Status" ma:default="" ma:internalName="TemplateStatus">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TemplateTemplateType" ma:index="124" nillable="true" ma:displayName="Template Type" ma:default="" ma:internalName="TemplateTemplateType">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ThumbnailAssetId" ma:index="125" nillable="true" ma:displayName="Thumbnail Image Asset" ma:default="" ma:internalName="ThumbnailAssetId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TimesCloned" ma:index="126" nillable="true" ma:displayName="Times Cloned" ma:default="" ma:internalName="TimesCloned" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TrustLevel" ma:index="128" nillable="true" ma:displayName="Trust Level" ma:default="1 Microsoft Managed Content" ma:internalName="TrustLevel" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UALocComments" ma:index="129" nillable="true" ma:displayName="UA Loc Comments" ma:default="" ma:internalName="UALocComments" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UALocRecommendation" ma:index="130" nillable="true" ma:displayName="UA Loc Recommendation" ma:default="Localize" ma:internalName="UALocRecommendation" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Localize"/>
-          <xsd:enumeration value="Never Localize"/>
-          <xsd:enumeration value="Priority Localize"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UANotes" ma:index="131" nillable="true" ma:displayName="UA Notes" ma:default="" ma:internalName="UANotes" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPAppVersion" ma:index="132" nillable="true" ma:displayName="Version" ma:default="" ma:internalName="TPAppVersion">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="VoteCount" ma:index="133" nillable="true" ma:displayName="Vote Count" ma:default="" ma:internalName="VoteCount" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="22" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="127" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <DirectSourceMarket xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">english</DirectSourceMarket>
@@ -2453,10 +1478,1067 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x010100F6E1CA76AAD4564AAF106FC3CFA868360400186944AA932D8046A3B88E9B37BEBDF5" ma:contentTypeVersion="57" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="99516f8994b63f46a279aa564b61ee37">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ccc0999b57010467b6aff3ba0e15941" ns2:_="">
+    <xsd:import namespace="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:AcquiredFrom" minOccurs="0"/>
+                <xsd:element ref="ns2:UACurrentWords" minOccurs="0"/>
+                <xsd:element ref="ns2:TPApplication" minOccurs="0"/>
+                <xsd:element ref="ns2:ApprovalLog" minOccurs="0"/>
+                <xsd:element ref="ns2:ApprovalStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:AssetStart" minOccurs="0"/>
+                <xsd:element ref="ns2:AssetExpire" minOccurs="0"/>
+                <xsd:element ref="ns2:AssetId" minOccurs="0"/>
+                <xsd:element ref="ns2:IsSearchable" minOccurs="0"/>
+                <xsd:element ref="ns2:AssetType" minOccurs="0"/>
+                <xsd:element ref="ns2:APAuthor" minOccurs="0"/>
+                <xsd:element ref="ns2:AverageRating" minOccurs="0"/>
+                <xsd:element ref="ns2:BlockPublish" minOccurs="0"/>
+                <xsd:element ref="ns2:BugNumber" minOccurs="0"/>
+                <xsd:element ref="ns2:CampaignTagsTaxHTField0" minOccurs="0"/>
+                <xsd:element ref="ns2:TPClientViewer" minOccurs="0"/>
+                <xsd:element ref="ns2:ClipArtFilename" minOccurs="0"/>
+                <xsd:element ref="ns2:TPCommandLine" minOccurs="0"/>
+                <xsd:element ref="ns2:TPComponent" minOccurs="0"/>
+                <xsd:element ref="ns2:ContentItem" minOccurs="0"/>
+                <xsd:element ref="ns2:CrawlForDependencies" minOccurs="0"/>
+                <xsd:element ref="ns2:CSXHash" minOccurs="0"/>
+                <xsd:element ref="ns2:CSXSubmissionMarket" minOccurs="0"/>
+                <xsd:element ref="ns2:CSXUpdate" minOccurs="0"/>
+                <xsd:element ref="ns2:IntlLangReviewDate" minOccurs="0"/>
+                <xsd:element ref="ns2:IsDeleted" minOccurs="0"/>
+                <xsd:element ref="ns2:APDescription" minOccurs="0"/>
+                <xsd:element ref="ns2:DirectSourceMarket" minOccurs="0"/>
+                <xsd:element ref="ns2:Downloads" minOccurs="0"/>
+                <xsd:element ref="ns2:DSATActionTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:APEditor" minOccurs="0"/>
+                <xsd:element ref="ns2:EditorialStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:EditorialTags" minOccurs="0"/>
+                <xsd:element ref="ns2:TPExecutable" minOccurs="0"/>
+                <xsd:element ref="ns2:FeatureTagsTaxHTField0" minOccurs="0"/>
+                <xsd:element ref="ns2:TPFriendlyName" minOccurs="0"/>
+                <xsd:element ref="ns2:FriendlyTitle" minOccurs="0"/>
+                <xsd:element ref="ns2:PrimaryImageGen" minOccurs="0"/>
+                <xsd:element ref="ns2:HandoffToMSDN" minOccurs="0"/>
+                <xsd:element ref="ns2:InProjectListLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:TPInstallLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:InternalTagsTaxHTField0" minOccurs="0"/>
+                <xsd:element ref="ns2:IntlLangReview" minOccurs="0"/>
+                <xsd:element ref="ns2:IntlLangReviewer" minOccurs="0"/>
+                <xsd:element ref="ns2:MarketSpecific" minOccurs="0"/>
+                <xsd:element ref="ns2:LastCompleteVersionLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastHandOff" minOccurs="0"/>
+                <xsd:element ref="ns2:LastModifiedDateTime" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPreviewErrorLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPreviewResultLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPreviewAttemptDateLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPreviewedByLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPreviewTimeLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPreviewVersionLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPublishErrorLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPublishResultLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPublishAttemptDateLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPublishedByLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPublishTimeLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPublishVersionLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:TPLaunchHelpLinkType" minOccurs="0"/>
+                <xsd:element ref="ns2:LegacyData" minOccurs="0"/>
+                <xsd:element ref="ns2:TPLaunchHelpLink" minOccurs="0"/>
+                <xsd:element ref="ns2:LocComments" minOccurs="0"/>
+                <xsd:element ref="ns2:LocLastLocAttemptVersionLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocLastLocAttemptVersionTypeLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocManualTestRequired" minOccurs="0"/>
+                <xsd:element ref="ns2:LocMarketGroupTiers2" minOccurs="0"/>
+                <xsd:element ref="ns2:LocNewPublishedVersionLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocOverallHandbackStatusLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocOverallLocStatusLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocOverallPreviewStatusLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocOverallPublishStatusLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:IntlLocPriority" minOccurs="0"/>
+                <xsd:element ref="ns2:LocProcessedForHandoffsLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocProcessedForMarketsLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocPublishedDependentAssetsLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocPublishedLinkedAssetsLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocRecommendedHandoff" minOccurs="0"/>
+                <xsd:element ref="ns2:LocalizationTagsTaxHTField0" minOccurs="0"/>
+                <xsd:element ref="ns2:MachineTranslated" minOccurs="0"/>
+                <xsd:element ref="ns2:Manager" minOccurs="0"/>
+                <xsd:element ref="ns2:Markets" minOccurs="0"/>
+                <xsd:element ref="ns2:Milestone" minOccurs="0"/>
+                <xsd:element ref="ns2:TPNamespace" minOccurs="0"/>
+                <xsd:element ref="ns2:NumericId" minOccurs="0"/>
+                <xsd:element ref="ns2:NumOfRatingsLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:OOCacheId" minOccurs="0"/>
+                <xsd:element ref="ns2:OpenTemplate" minOccurs="0"/>
+                <xsd:element ref="ns2:OriginAsset" minOccurs="0"/>
+                <xsd:element ref="ns2:OriginalRelease" minOccurs="0"/>
+                <xsd:element ref="ns2:OriginalSourceMarket" minOccurs="0"/>
+                <xsd:element ref="ns2:OutputCachingOn" minOccurs="0"/>
+                <xsd:element ref="ns2:ParentAssetId" minOccurs="0"/>
+                <xsd:element ref="ns2:PlannedPubDate" minOccurs="0"/>
+                <xsd:element ref="ns2:PolicheckWords" minOccurs="0"/>
+                <xsd:element ref="ns2:BusinessGroup" minOccurs="0"/>
+                <xsd:element ref="ns2:UAProjectedTotalWords" minOccurs="0"/>
+                <xsd:element ref="ns2:Provider" minOccurs="0"/>
+                <xsd:element ref="ns2:Providers" minOccurs="0"/>
+                <xsd:element ref="ns2:PublishStatusLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:PublishTargets" minOccurs="0"/>
+                <xsd:element ref="ns2:RecommendationsModifier" minOccurs="0"/>
+                <xsd:element ref="ns2:ArtSampleDocs" minOccurs="0"/>
+                <xsd:element ref="ns2:ScenarioTagsTaxHTField0" minOccurs="0"/>
+                <xsd:element ref="ns2:ShowIn" minOccurs="0"/>
+                <xsd:element ref="ns2:SourceTitle" minOccurs="0"/>
+                <xsd:element ref="ns2:CSXSubmissionDate" minOccurs="0"/>
+                <xsd:element ref="ns2:SubmitterId" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns2:TemplateStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:TemplateTemplateType" minOccurs="0"/>
+                <xsd:element ref="ns2:ThumbnailAssetId" minOccurs="0"/>
+                <xsd:element ref="ns2:TimesCloned" minOccurs="0"/>
+                <xsd:element ref="ns2:TrustLevel" minOccurs="0"/>
+                <xsd:element ref="ns2:UALocComments" minOccurs="0"/>
+                <xsd:element ref="ns2:UALocRecommendation" minOccurs="0"/>
+                <xsd:element ref="ns2:UANotes" minOccurs="0"/>
+                <xsd:element ref="ns2:TPAppVersion" minOccurs="0"/>
+                <xsd:element ref="ns2:VoteCount" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="AcquiredFrom" ma:index="1" nillable="true" ma:displayName="Acquired From" ma:default="Internal MS" ma:internalName="AcquiredFrom" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Internal MS"/>
+          <xsd:enumeration value="Community"/>
+          <xsd:enumeration value="MVP"/>
+          <xsd:enumeration value="Publisher"/>
+          <xsd:enumeration value="Partner"/>
+          <xsd:enumeration value="None"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="UACurrentWords" ma:index="2" nillable="true" ma:displayName="Actual Word Count" ma:default="" ma:internalName="UACurrentWords" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TPApplication" ma:index="3" nillable="true" ma:displayName="Application to Open Template With" ma:default="" ma:internalName="TPApplication">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ApprovalLog" ma:index="4" nillable="true" ma:displayName="Approval Log" ma:default="" ma:hidden="true" ma:internalName="ApprovalLog" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ApprovalStatus" ma:index="5" nillable="true" ma:displayName="Approval Status" ma:default="InProgress" ma:internalName="ApprovalStatus" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="InProgress"/>
+          <xsd:enumeration value="Rejected"/>
+          <xsd:enumeration value="Questionable"/>
+          <xsd:enumeration value="ApprovedAutomatic"/>
+          <xsd:enumeration value="ApprovedManual"/>
+          <xsd:enumeration value="On Hold"/>
+          <xsd:enumeration value="Needs Review"/>
+          <xsd:enumeration value="A Violation"/>
+          <xsd:enumeration value="Unpublished Violation"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="AssetStart" ma:index="6" nillable="true" ma:displayName="Asset Begin Date" ma:default="[Today]" ma:internalName="AssetStart" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="AssetExpire" ma:index="7" nillable="true" ma:displayName="Asset End Date" ma:default="2029-01-01T00:00:00Z" ma:internalName="AssetExpire" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="AssetId" ma:index="8" nillable="true" ma:displayName="Asset ID" ma:default="" ma:indexed="true" ma:internalName="AssetId" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="IsSearchable" ma:index="9" nillable="true" ma:displayName="Asset Searchable?" ma:default="true" ma:internalName="IsSearchable" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="AssetType" ma:index="10" nillable="true" ma:displayName="Asset Type" ma:default="" ma:internalName="AssetType" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="APAuthor" ma:index="11" nillable="true" ma:displayName="Author" ma:default="" ma:list="UserInfo" ma:internalName="APAuthor" ma:readOnly="false">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="AverageRating" ma:index="12" nillable="true" ma:displayName="Average Rating" ma:internalName="AverageRating" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="BlockPublish" ma:index="13" nillable="true" ma:displayName="Block from Publishing?" ma:default="" ma:internalName="BlockPublish" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="BugNumber" ma:index="14" nillable="true" ma:displayName="Bug Number" ma:default="" ma:internalName="BugNumber" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CampaignTagsTaxHTField0" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="CampaignTagsTaxHTField0" ma:taxonomyFieldName="CampaignTags" ma:displayName="Campaigns" ma:readOnly="false" ma:default="" ma:fieldId="{04032b9e-8ee6-4e89-b9db-4ffff205d025}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="ca0e50d4-faa1-44ce-961e-bb1441c60e66" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TPClientViewer" ma:index="17" nillable="true" ma:displayName="Client Viewer" ma:default="" ma:internalName="TPClientViewer">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ClipArtFilename" ma:index="18" nillable="true" ma:displayName="Clip Art Name" ma:default="" ma:internalName="ClipArtFilename" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TPCommandLine" ma:index="19" nillable="true" ma:displayName="Command Line" ma:default="" ma:internalName="TPCommandLine">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TPComponent" ma:index="20" nillable="true" ma:displayName="Component" ma:default="" ma:internalName="TPComponent">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ContentItem" ma:index="21" nillable="true" ma:displayName="Content Item" ma:default="" ma:hidden="true" ma:internalName="ContentItem" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CrawlForDependencies" ma:index="23" nillable="true" ma:displayName="Crawl for Dependencies?" ma:default="true" ma:internalName="CrawlForDependencies" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CSXHash" ma:index="26" nillable="true" ma:displayName="CSX Hash" ma:default="" ma:indexed="true" ma:internalName="CSXHash" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CSXSubmissionMarket" ma:index="27" nillable="true" ma:displayName="CSX Submission Market" ma:default="" ma:list="{388FC2BA-F530-4FF7-911A-621CAE6AFBD3}" ma:internalName="CSXSubmissionMarket" ma:readOnly="false" ma:showField="MarketName" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CSXUpdate" ma:index="28" nillable="true" ma:displayName="CSX Updated?" ma:default="false" ma:internalName="CSXUpdate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="IntlLangReviewDate" ma:index="29" nillable="true" ma:displayName="Date to Complete Intl QA" ma:default="" ma:internalName="IntlLangReviewDate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="IsDeleted" ma:index="30" nillable="true" ma:displayName="Deleted?" ma:default="" ma:internalName="IsDeleted" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="APDescription" ma:index="31" nillable="true" ma:displayName="Description" ma:default="" ma:internalName="APDescription" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="DirectSourceMarket" ma:index="32" nillable="true" ma:displayName="Direct Source Market Group" ma:default="" ma:internalName="DirectSourceMarket" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Downloads" ma:index="33" nillable="true" ma:displayName="Downloads" ma:default="0" ma:hidden="true" ma:internalName="Downloads" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="DSATActionTaken" ma:index="34" nillable="true" ma:displayName="DSAT Action Taken" ma:default="" ma:internalName="DSATActionTaken" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Best Bets"/>
+          <xsd:enumeration value="Expire"/>
+          <xsd:enumeration value="Hide"/>
+          <xsd:enumeration value="None"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="APEditor" ma:index="35" nillable="true" ma:displayName="Editor" ma:default="" ma:list="UserInfo" ma:internalName="APEditor" ma:readOnly="false">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="EditorialStatus" ma:index="36" nillable="true" ma:displayName="Editorial Status" ma:default="" ma:internalName="EditorialStatus" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="EditorialTags" ma:index="37" nillable="true" ma:displayName="Editorial Tags" ma:default="" ma:internalName="EditorialTags">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TPExecutable" ma:index="38" nillable="true" ma:displayName="Executable" ma:default="" ma:internalName="TPExecutable">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="FeatureTagsTaxHTField0" ma:index="40" nillable="true" ma:taxonomy="true" ma:internalName="FeatureTagsTaxHTField0" ma:taxonomyFieldName="FeatureTags" ma:displayName="Features" ma:readOnly="false" ma:default="" ma:fieldId="{5dcf7547-996b-4a0e-b7d1-0f761d14131b}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="f1ab6845-967d-4854-a0ba-4ec07f0f8113" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TPFriendlyName" ma:index="41" nillable="true" ma:displayName="Friendly Name" ma:default="" ma:internalName="TPFriendlyName">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="FriendlyTitle" ma:index="42" nillable="true" ma:displayName="Friendly Title" ma:default="" ma:description="Shorter title to be used when displaying search results" ma:internalName="FriendlyTitle" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="PrimaryImageGen" ma:index="43" nillable="true" ma:displayName="Generate Images?" ma:default="true" ma:internalName="PrimaryImageGen">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="HandoffToMSDN" ma:index="44" nillable="true" ma:displayName="Handoff To MSDN Date" ma:default="" ma:internalName="HandoffToMSDN" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="InProjectListLookup" ma:index="45" nillable="true" ma:displayName="InProjectListLookup" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="InProjectListLookup" ma:readOnly="true" ma:showField="InProjectList" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TPInstallLocation" ma:index="46" nillable="true" ma:displayName="Install Location" ma:default="" ma:internalName="TPInstallLocation">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="InternalTagsTaxHTField0" ma:index="48" nillable="true" ma:taxonomy="true" ma:internalName="InternalTagsTaxHTField0" ma:taxonomyFieldName="InternalTags" ma:displayName="Internal Tags" ma:readOnly="false" ma:default="" ma:fieldId="{e5aec8e1-0842-4156-acaa-2defcf90540a}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="82b6639e-f7fc-4c18-ad2d-003a6e707765" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="IntlLangReview" ma:index="49" nillable="true" ma:displayName="Intl Lang QA Review Required?" ma:default="" ma:internalName="IntlLangReview" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="IntlLangReviewer" ma:index="50" nillable="true" ma:displayName="Intl Lang QA Reviewer" ma:default="" ma:internalName="IntlLangReviewer" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MarketSpecific" ma:index="51" nillable="true" ma:displayName="Is Market Specific?" ma:default="" ma:internalName="MarketSpecific" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LastCompleteVersionLookup" ma:index="52" nillable="true" ma:displayName="Last Complete Version Lookup" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastCompleteVersionLookup" ma:readOnly="true" ma:showField="LastCompleteVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastHandOff" ma:index="53" nillable="true" ma:displayName="Last Hand-off" ma:default="" ma:internalName="LastHandOff" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LastModifiedDateTime" ma:index="54" nillable="true" ma:displayName="Last Modified Date" ma:default="" ma:internalName="LastModifiedDateTime" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LastPreviewErrorLookup" ma:index="55" nillable="true" ma:displayName="Last Preview Attempt Error" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewErrorLookup" ma:readOnly="true" ma:showField="LastPreviewError" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPreviewResultLookup" ma:index="56" nillable="true" ma:displayName="Last Preview Attempt Result" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewResultLookup" ma:readOnly="true" ma:showField="LastPreviewResult" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPreviewAttemptDateLookup" ma:index="57" nillable="true" ma:displayName="Last Preview Attempted On" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewAttemptDateLookup" ma:readOnly="true" ma:showField="LastPreviewAttemptDate" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPreviewedByLookup" ma:index="58" nillable="true" ma:displayName="Last Previewed By" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewedByLookup" ma:readOnly="true" ma:showField="LastPreviewedBy" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPreviewTimeLookup" ma:index="59" nillable="true" ma:displayName="Last Previewed Date" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewTimeLookup" ma:readOnly="true" ma:showField="LastPreviewTime" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPreviewVersionLookup" ma:index="60" nillable="true" ma:displayName="Last Previewed Version" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewVersionLookup" ma:readOnly="true" ma:showField="LastPreviewVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPublishErrorLookup" ma:index="61" nillable="true" ma:displayName="Last Publish Attempt Error" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishErrorLookup" ma:readOnly="true" ma:showField="LastPublishError" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPublishResultLookup" ma:index="62" nillable="true" ma:displayName="Last Publish Attempt Result" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishResultLookup" ma:readOnly="true" ma:showField="LastPublishResult" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPublishAttemptDateLookup" ma:index="63" nillable="true" ma:displayName="Last Publish Attempted On" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishAttemptDateLookup" ma:readOnly="true" ma:showField="LastPublishAttemptDate" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPublishedByLookup" ma:index="64" nillable="true" ma:displayName="Last Published By" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishedByLookup" ma:readOnly="true" ma:showField="LastPublishedBy" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPublishTimeLookup" ma:index="65" nillable="true" ma:displayName="Last Published Date" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishTimeLookup" ma:readOnly="true" ma:showField="LastPublishTime" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPublishVersionLookup" ma:index="66" nillable="true" ma:displayName="Last Published Version" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishVersionLookup" ma:readOnly="true" ma:showField="LastPublishVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TPLaunchHelpLinkType" ma:index="67" nillable="true" ma:displayName="Launch Help Link Type" ma:default="Template" ma:internalName="TPLaunchHelpLinkType">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Template"/>
+          <xsd:enumeration value="Training"/>
+          <xsd:enumeration value="URL"/>
+          <xsd:enumeration value="None"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LegacyData" ma:index="68" nillable="true" ma:displayName="Legacy Data" ma:default="" ma:internalName="LegacyData" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TPLaunchHelpLink" ma:index="69" nillable="true" ma:displayName="Link to Launch Help Topic" ma:default="" ma:internalName="TPLaunchHelpLink">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocComments" ma:index="70" nillable="true" ma:displayName="Loc Approval Comments" ma:default="" ma:internalName="LocComments" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocLastLocAttemptVersionLookup" ma:index="71" nillable="true" ma:displayName="Loc Last Loc Attempt Version" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocLastLocAttemptVersionLookup" ma:readOnly="false" ma:showField="LastLocAttemptVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocLastLocAttemptVersionTypeLookup" ma:index="72" nillable="true" ma:displayName="Loc Last Loc Attempt Version Type" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocLastLocAttemptVersionTypeLookup" ma:readOnly="true" ma:showField="LastLocAttemptVersionType" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocManualTestRequired" ma:index="73" nillable="true" ma:displayName="Loc Manual Test Required" ma:default="" ma:internalName="LocManualTestRequired" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocMarketGroupTiers2" ma:index="74" nillable="true" ma:displayName="Loc Market Group Tiers" ma:internalName="LocMarketGroupTiers2" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocNewPublishedVersionLookup" ma:index="75" nillable="true" ma:displayName="Loc New Published Version Lookup" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocNewPublishedVersionLookup" ma:readOnly="true" ma:showField="NewPublishedVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocOverallHandbackStatusLookup" ma:index="76" nillable="true" ma:displayName="Loc Overall Handback Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallHandbackStatusLookup" ma:readOnly="true" ma:showField="OverallHandbackStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocOverallLocStatusLookup" ma:index="77" nillable="true" ma:displayName="Loc Overall Localize Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallLocStatusLookup" ma:readOnly="true" ma:showField="OverallLocStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocOverallPreviewStatusLookup" ma:index="78" nillable="true" ma:displayName="Loc Overall Preview Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallPreviewStatusLookup" ma:readOnly="true" ma:showField="OverallPreviewStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocOverallPublishStatusLookup" ma:index="79" nillable="true" ma:displayName="Loc Overall Publish Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallPublishStatusLookup" ma:readOnly="true" ma:showField="OverallPublishStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="IntlLocPriority" ma:index="80" nillable="true" ma:displayName="Loc Priority" ma:default="" ma:internalName="IntlLocPriority" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocProcessedForHandoffsLookup" ma:index="81" nillable="true" ma:displayName="Loc Processed For Handoffs" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocProcessedForHandoffsLookup" ma:readOnly="true" ma:showField="ProcessedForHandoffs" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocProcessedForMarketsLookup" ma:index="82" nillable="true" ma:displayName="Loc Processed For Markets" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocProcessedForMarketsLookup" ma:readOnly="true" ma:showField="ProcessedForMarkets" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocPublishedDependentAssetsLookup" ma:index="83" nillable="true" ma:displayName="Loc Published Dependent Assets" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocPublishedDependentAssetsLookup" ma:readOnly="true" ma:showField="PublishedDependentAssets" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocPublishedLinkedAssetsLookup" ma:index="84" nillable="true" ma:displayName="Loc Published Linked Assets" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocPublishedLinkedAssetsLookup" ma:readOnly="true" ma:showField="PublishedLinkedAssets" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocRecommendedHandoff" ma:index="85" nillable="true" ma:displayName="Loc Recommended Handoff" ma:default="" ma:indexed="true" ma:internalName="LocRecommendedHandoff" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocalizationTagsTaxHTField0" ma:index="87" nillable="true" ma:taxonomy="true" ma:internalName="LocalizationTagsTaxHTField0" ma:taxonomyFieldName="LocalizationTags" ma:displayName="Localization Tags" ma:readOnly="false" ma:default="" ma:fieldId="{28ca5b26-415b-4822-b35b-d9a845b1b83b}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="5b7703a5-8e8b-4b58-8b31-1cea35331da3" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MachineTranslated" ma:index="88" nillable="true" ma:displayName="Machine Translated" ma:default="" ma:internalName="MachineTranslated" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Manager" ma:index="89" nillable="true" ma:displayName="Manager" ma:hidden="true" ma:internalName="Manager" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Markets" ma:index="90" nillable="true" ma:displayName="Markets" ma:default="" ma:description="Leave blank to show in all markets" ma:list="{388FC2BA-F530-4FF7-911A-621CAE6AFBD3}" ma:internalName="Markets" ma:readOnly="false" ma:showField="MarketName" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="Milestone" ma:index="91" nillable="true" ma:displayName="Milestone" ma:default="" ma:internalName="Milestone" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TPNamespace" ma:index="94" nillable="true" ma:displayName="Namespace" ma:default="" ma:internalName="TPNamespace">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="NumericId" ma:index="95" nillable="true" ma:displayName="Numeric ID" ma:default="" ma:indexed="true" ma:internalName="NumericId" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="NumOfRatingsLookup" ma:index="96" nillable="true" ma:displayName="NumOfRatings" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="NumOfRatingsLookup" ma:readOnly="true" ma:showField="NumOfRatings" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="OOCacheId" ma:index="97" nillable="true" ma:displayName="OOCacheId" ma:internalName="OOCacheId" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="OpenTemplate" ma:index="98" nillable="true" ma:displayName="Open Template" ma:default="true" ma:internalName="OpenTemplate">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="OriginAsset" ma:index="99" nillable="true" ma:displayName="Origin Asset" ma:default="" ma:internalName="OriginAsset" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="OriginalRelease" ma:index="100" nillable="true" ma:displayName="Original Release" ma:default="15" ma:internalName="OriginalRelease" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="14"/>
+          <xsd:enumeration value="15"/>
+          <xsd:enumeration value="16"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="OriginalSourceMarket" ma:index="101" nillable="true" ma:displayName="Original Source Market Group" ma:default="" ma:internalName="OriginalSourceMarket" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="OutputCachingOn" ma:index="102" nillable="true" ma:displayName="Output Caching" ma:default="true" ma:hidden="true" ma:internalName="OutputCachingOn" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ParentAssetId" ma:index="103" nillable="true" ma:displayName="Parent Asset Id" ma:default="" ma:internalName="ParentAssetId" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="PlannedPubDate" ma:index="104" nillable="true" ma:displayName="Planned Publish Date" ma:default="" ma:indexed="true" ma:internalName="PlannedPubDate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="PolicheckWords" ma:index="105" nillable="true" ma:displayName="Policheck Words" ma:default="" ma:internalName="PolicheckWords" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="BusinessGroup" ma:index="106" nillable="true" ma:displayName="Product Division Owner" ma:default="" ma:internalName="BusinessGroup" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="UAProjectedTotalWords" ma:index="107" nillable="true" ma:displayName="Projected Word Count" ma:default="" ma:internalName="UAProjectedTotalWords" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Provider" ma:index="108" nillable="true" ma:displayName="Provider" ma:default="" ma:internalName="Provider" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Providers" ma:index="109" nillable="true" ma:displayName="Providers" ma:default="" ma:internalName="Providers">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="PublishStatusLookup" ma:index="110" nillable="true" ma:displayName="Publish Status" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="PublishStatusLookup" ma:readOnly="false" ma:showField="PublishStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="PublishTargets" ma:index="111" nillable="true" ma:displayName="Publish Target" ma:default="OfficeOnlineVNext" ma:internalName="PublishTargets" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="RecommendationsModifier" ma:index="112" nillable="true" ma:displayName="Recommendations Modifier" ma:default="" ma:internalName="RecommendationsModifier" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ArtSampleDocs" ma:index="113" nillable="true" ma:displayName="Sample Docs" ma:default="" ma:hidden="true" ma:internalName="ArtSampleDocs" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ScenarioTagsTaxHTField0" ma:index="115" nillable="true" ma:taxonomy="true" ma:internalName="ScenarioTagsTaxHTField0" ma:taxonomyFieldName="ScenarioTags" ma:displayName="Scenarios" ma:readOnly="false" ma:default="" ma:fieldId="{1c8e7b99-44ca-46c8-84b8-12cd8d7cf8ee}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="4b7d5f16-e2f2-4fc0-bab3-6e8b931e57d6" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ShowIn" ma:index="117" nillable="true" ma:displayName="Show In" ma:default="Show everywhere" ma:internalName="ShowIn" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Hide on web"/>
+          <xsd:enumeration value="On Web no search"/>
+          <xsd:enumeration value="Show everywhere"/>
+          <xsd:enumeration value="Special use only"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SourceTitle" ma:index="118" nillable="true" ma:displayName="Source Title" ma:default="" ma:indexed="true" ma:internalName="SourceTitle" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CSXSubmissionDate" ma:index="119" nillable="true" ma:displayName="Submission Date" ma:default="" ma:internalName="CSXSubmissionDate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SubmitterId" ma:index="120" nillable="true" ma:displayName="Submitter ID" ma:default="" ma:internalName="SubmitterId" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="121" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c59171da-55f1-4c8b-8421-0d1d3f99d741}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAllLabel" ma:index="122" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{c59171da-55f1-4c8b-8421-0d1d3f99d741}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TemplateStatus" ma:index="123" nillable="true" ma:displayName="Template Status" ma:default="" ma:internalName="TemplateStatus">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TemplateTemplateType" ma:index="124" nillable="true" ma:displayName="Template Type" ma:default="" ma:internalName="TemplateTemplateType">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ThumbnailAssetId" ma:index="125" nillable="true" ma:displayName="Thumbnail Image Asset" ma:default="" ma:internalName="ThumbnailAssetId" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TimesCloned" ma:index="126" nillable="true" ma:displayName="Times Cloned" ma:default="" ma:internalName="TimesCloned" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TrustLevel" ma:index="128" nillable="true" ma:displayName="Trust Level" ma:default="1 Microsoft Managed Content" ma:internalName="TrustLevel" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="UALocComments" ma:index="129" nillable="true" ma:displayName="UA Loc Comments" ma:default="" ma:internalName="UALocComments" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="UALocRecommendation" ma:index="130" nillable="true" ma:displayName="UA Loc Recommendation" ma:default="Localize" ma:internalName="UALocRecommendation" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Localize"/>
+          <xsd:enumeration value="Never Localize"/>
+          <xsd:enumeration value="Priority Localize"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="UANotes" ma:index="131" nillable="true" ma:displayName="UA Notes" ma:default="" ma:internalName="UANotes" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TPAppVersion" ma:index="132" nillable="true" ma:displayName="Version" ma:default="" ma:internalName="TPAppVersion">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="VoteCount" ma:index="133" nillable="true" ma:displayName="Vote Count" ma:default="" ma:internalName="VoteCount" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="22" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="127" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9659279B-CA79-44FF-BF15-83F6AAD0C4E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2B99CB1-8E2B-4A06-BE97-F0CCC71A7538}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2480,17 +2562,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2B99CB1-8E2B-4A06-BE97-F0CCC71A7538}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9659279B-CA79-44FF-BF15-83F6AAD0C4E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DioDocs/ExcelTemplateReport/Templates/SimpleInvoiceJP_可変明細_複数シート.xlsx
+++ b/DioDocs/ExcelTemplateReport/Templates/SimpleInvoiceJP_可変明細_複数シート.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori\source\github\Self-Learning\DioDocs\ExcelTemplateReport\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322CFAD3-6FCC-4F58-B6FA-7F0776E793C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F057BE9D-AF4E-4846-9715-772D514E1A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="3900" windowWidth="19752" windowHeight="18984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22572" yWindow="3060" windowWidth="13692" windowHeight="16008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="{{ds.customer.companyname}}" sheetId="2" r:id="rId1"/>
@@ -1043,7 +1038,7 @@
       </c>
       <c r="I1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44371</v>
+        <v>44508</v>
       </c>
       <c r="J1" s="4"/>
     </row>
@@ -1061,7 +1056,7 @@
       </c>
       <c r="H3" s="6" t="str">
         <f ca="1">TEXT(TODAY(),"DD")&amp;"-"&amp;TEXT(NOW(),"HMM")</f>
-        <v>24-1723</v>
+        <v>08-1503</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>17</v>
@@ -1338,1233 +1333,4 @@
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DirectSourceMarket xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">english</DirectSourceMarket>
-    <ApprovalStatus xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">InProgress</ApprovalStatus>
-    <MarketSpecific xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">false</MarketSpecific>
-    <PrimaryImageGen xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">true</PrimaryImageGen>
-    <ThumbnailAssetId xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <LegacyData xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">ListingID:;Manager:;BuildStatus:None;MockupPath:</LegacyData>
-    <TPFriendlyName xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">請求書 1 Excel</TPFriendlyName>
-    <NumericId xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">-1</NumericId>
-    <BusinessGroup xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <SourceTitle xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">請求書 1 Excel</SourceTitle>
-    <APEditor xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <UserInfo>
-        <DisplayName>FAREAST\v-sabhe</DisplayName>
-        <AccountId>472</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <OpenTemplate xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">true</OpenTemplate>
-    <UALocComments xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <ParentAssetId xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <IntlLangReviewDate xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">2010-08-11T18:36:00+00:00</IntlLangReviewDate>
-    <LastPublishResultLookup xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <Value>337945</Value>
-      <Value>451418</Value>
-    </PublishStatusLookup>
-    <Providers xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <MachineTranslated xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">false</MachineTranslated>
-    <OriginalSourceMarket xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">english</OriginalSourceMarket>
-    <TPInstallLocation xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">{My Templates}</TPInstallLocation>
-    <APDescription xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <ClipArtFilename xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <ContentItem xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <APAuthor xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <UserInfo>
-        <DisplayName>FAREAST\v-sabhe</DisplayName>
-        <AccountId>472</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">{XL} /t {FilePath}</TPCommandLine>
-    <TPAppVersion xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">12</TPAppVersion>
-    <PublishTargets xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">OfficeOnline</PublishTargets>
-    <EditorialStatus xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <TPLaunchHelpLinkType xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <LastModifiedDateTime xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">2010-08-11T18:36:00+00:00</LastModifiedDateTime>
-    <TimesCloned xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <Provider xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <LastHandOff xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <AssetStart xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">2010-01-26T04:16:36+00:00</AssetStart>
-    <FriendlyTitle xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <AcquiredFrom xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">Community</AcquiredFrom>
-    <UACurrentWords xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">0</UACurrentWords>
-    <UALocRecommendation xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">Localize</UALocRecommendation>
-    <Manager xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <TPClientViewer xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <ArtSampleDocs xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <IsDeleted xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">false</IsDeleted>
-    <UANotes xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <ShowIn xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">On Web no search</ShowIn>
-    <CSXHash xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <OOCacheId xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <TemplateStatus xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <VoteCount xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <Downloads xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">0</Downloads>
-    <DSATActionTaken xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">Best Bets</DSATActionTaken>
-    <AssetExpire xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">2100-01-01T00:00:00+00:00</AssetExpire>
-    <CSXSubmissionMarket xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <EditorialTags xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <SubmitterId xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <TPExecutable xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <AssetType xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">TP</AssetType>
-    <CSXUpdate xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">false</CSXUpdate>
-    <ApprovalLog xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <CSXSubmissionDate xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <BugNumber xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <TPComponent xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">EXCELFiles</TPComponent>
-    <Milestone xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <OriginAsset xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <AssetId xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">TP010378475</AssetId>
-    <TPLaunchHelpLink xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <TPApplication xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">Excel</TPApplication>
-    <IntlLocPriority xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <PolicheckWords xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">false</CrawlForDependencies>
-    <IntlLangReviewer xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">2010-08-11T18:36:00+00:00</HandoffToMSDN>
-    <PlannedPubDate xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">2010-08-11T18:36:00+00:00</PlannedPubDate>
-    <TrustLevel xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">1 Microsoft Managed Content</TrustLevel>
-    <IsSearchable xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">false</IsSearchable>
-    <TPNamespace xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">Excel 2007 Default</TemplateTemplateType>
-    <Markets xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
-    <IntlLangReview xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <AverageRating xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <OutputCachingOn xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">false</OutputCachingOn>
-    <LocPublishedDependentAssetsLookup xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <TaxCatchAll xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
-    <LocComments xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <LocProcessedForMarketsLookup xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <RecommendationsModifier xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <LocOverallHandbackStatusLookup xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <LocNewPublishedVersionLookup xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <BlockPublish xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <LocOverallLocStatusLookup xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <LocOverallPreviewStatusLookup xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <LocOverallPublishStatusLookup xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <LocPublishedLinkedAssetsLookup xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <InternalTagsTaxHTField0 xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LocProcessedForHandoffsLookup xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <LocalizationTagsTaxHTField0 xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <CampaignTagsTaxHTField0 xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <LocLastLocAttemptVersionLookup xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">49989</LocLastLocAttemptVersionLookup>
-    <LocLastLocAttemptVersionTypeLookup xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-    <OriginalRelease xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">14</OriginalRelease>
-    <LocMarketGroupTiers2 xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x010100F6E1CA76AAD4564AAF106FC3CFA868360400186944AA932D8046A3B88E9B37BEBDF5" ma:contentTypeVersion="57" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="99516f8994b63f46a279aa564b61ee37">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ccc0999b57010467b6aff3ba0e15941" ns2:_="">
-    <xsd:import namespace="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:AcquiredFrom" minOccurs="0"/>
-                <xsd:element ref="ns2:UACurrentWords" minOccurs="0"/>
-                <xsd:element ref="ns2:TPApplication" minOccurs="0"/>
-                <xsd:element ref="ns2:ApprovalLog" minOccurs="0"/>
-                <xsd:element ref="ns2:ApprovalStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:AssetStart" minOccurs="0"/>
-                <xsd:element ref="ns2:AssetExpire" minOccurs="0"/>
-                <xsd:element ref="ns2:AssetId" minOccurs="0"/>
-                <xsd:element ref="ns2:IsSearchable" minOccurs="0"/>
-                <xsd:element ref="ns2:AssetType" minOccurs="0"/>
-                <xsd:element ref="ns2:APAuthor" minOccurs="0"/>
-                <xsd:element ref="ns2:AverageRating" minOccurs="0"/>
-                <xsd:element ref="ns2:BlockPublish" minOccurs="0"/>
-                <xsd:element ref="ns2:BugNumber" minOccurs="0"/>
-                <xsd:element ref="ns2:CampaignTagsTaxHTField0" minOccurs="0"/>
-                <xsd:element ref="ns2:TPClientViewer" minOccurs="0"/>
-                <xsd:element ref="ns2:ClipArtFilename" minOccurs="0"/>
-                <xsd:element ref="ns2:TPCommandLine" minOccurs="0"/>
-                <xsd:element ref="ns2:TPComponent" minOccurs="0"/>
-                <xsd:element ref="ns2:ContentItem" minOccurs="0"/>
-                <xsd:element ref="ns2:CrawlForDependencies" minOccurs="0"/>
-                <xsd:element ref="ns2:CSXHash" minOccurs="0"/>
-                <xsd:element ref="ns2:CSXSubmissionMarket" minOccurs="0"/>
-                <xsd:element ref="ns2:CSXUpdate" minOccurs="0"/>
-                <xsd:element ref="ns2:IntlLangReviewDate" minOccurs="0"/>
-                <xsd:element ref="ns2:IsDeleted" minOccurs="0"/>
-                <xsd:element ref="ns2:APDescription" minOccurs="0"/>
-                <xsd:element ref="ns2:DirectSourceMarket" minOccurs="0"/>
-                <xsd:element ref="ns2:Downloads" minOccurs="0"/>
-                <xsd:element ref="ns2:DSATActionTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:APEditor" minOccurs="0"/>
-                <xsd:element ref="ns2:EditorialStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:EditorialTags" minOccurs="0"/>
-                <xsd:element ref="ns2:TPExecutable" minOccurs="0"/>
-                <xsd:element ref="ns2:FeatureTagsTaxHTField0" minOccurs="0"/>
-                <xsd:element ref="ns2:TPFriendlyName" minOccurs="0"/>
-                <xsd:element ref="ns2:FriendlyTitle" minOccurs="0"/>
-                <xsd:element ref="ns2:PrimaryImageGen" minOccurs="0"/>
-                <xsd:element ref="ns2:HandoffToMSDN" minOccurs="0"/>
-                <xsd:element ref="ns2:InProjectListLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:TPInstallLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:InternalTagsTaxHTField0" minOccurs="0"/>
-                <xsd:element ref="ns2:IntlLangReview" minOccurs="0"/>
-                <xsd:element ref="ns2:IntlLangReviewer" minOccurs="0"/>
-                <xsd:element ref="ns2:MarketSpecific" minOccurs="0"/>
-                <xsd:element ref="ns2:LastCompleteVersionLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastHandOff" minOccurs="0"/>
-                <xsd:element ref="ns2:LastModifiedDateTime" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewErrorLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewResultLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewAttemptDateLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewedByLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewTimeLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewVersionLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishErrorLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishResultLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishAttemptDateLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishedByLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishTimeLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishVersionLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:TPLaunchHelpLinkType" minOccurs="0"/>
-                <xsd:element ref="ns2:LegacyData" minOccurs="0"/>
-                <xsd:element ref="ns2:TPLaunchHelpLink" minOccurs="0"/>
-                <xsd:element ref="ns2:LocComments" minOccurs="0"/>
-                <xsd:element ref="ns2:LocLastLocAttemptVersionLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocLastLocAttemptVersionTypeLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocManualTestRequired" minOccurs="0"/>
-                <xsd:element ref="ns2:LocMarketGroupTiers2" minOccurs="0"/>
-                <xsd:element ref="ns2:LocNewPublishedVersionLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocOverallHandbackStatusLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocOverallLocStatusLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocOverallPreviewStatusLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocOverallPublishStatusLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:IntlLocPriority" minOccurs="0"/>
-                <xsd:element ref="ns2:LocProcessedForHandoffsLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocProcessedForMarketsLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocPublishedDependentAssetsLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocPublishedLinkedAssetsLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocRecommendedHandoff" minOccurs="0"/>
-                <xsd:element ref="ns2:LocalizationTagsTaxHTField0" minOccurs="0"/>
-                <xsd:element ref="ns2:MachineTranslated" minOccurs="0"/>
-                <xsd:element ref="ns2:Manager" minOccurs="0"/>
-                <xsd:element ref="ns2:Markets" minOccurs="0"/>
-                <xsd:element ref="ns2:Milestone" minOccurs="0"/>
-                <xsd:element ref="ns2:TPNamespace" minOccurs="0"/>
-                <xsd:element ref="ns2:NumericId" minOccurs="0"/>
-                <xsd:element ref="ns2:NumOfRatingsLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:OOCacheId" minOccurs="0"/>
-                <xsd:element ref="ns2:OpenTemplate" minOccurs="0"/>
-                <xsd:element ref="ns2:OriginAsset" minOccurs="0"/>
-                <xsd:element ref="ns2:OriginalRelease" minOccurs="0"/>
-                <xsd:element ref="ns2:OriginalSourceMarket" minOccurs="0"/>
-                <xsd:element ref="ns2:OutputCachingOn" minOccurs="0"/>
-                <xsd:element ref="ns2:ParentAssetId" minOccurs="0"/>
-                <xsd:element ref="ns2:PlannedPubDate" minOccurs="0"/>
-                <xsd:element ref="ns2:PolicheckWords" minOccurs="0"/>
-                <xsd:element ref="ns2:BusinessGroup" minOccurs="0"/>
-                <xsd:element ref="ns2:UAProjectedTotalWords" minOccurs="0"/>
-                <xsd:element ref="ns2:Provider" minOccurs="0"/>
-                <xsd:element ref="ns2:Providers" minOccurs="0"/>
-                <xsd:element ref="ns2:PublishStatusLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:PublishTargets" minOccurs="0"/>
-                <xsd:element ref="ns2:RecommendationsModifier" minOccurs="0"/>
-                <xsd:element ref="ns2:ArtSampleDocs" minOccurs="0"/>
-                <xsd:element ref="ns2:ScenarioTagsTaxHTField0" minOccurs="0"/>
-                <xsd:element ref="ns2:ShowIn" minOccurs="0"/>
-                <xsd:element ref="ns2:SourceTitle" minOccurs="0"/>
-                <xsd:element ref="ns2:CSXSubmissionDate" minOccurs="0"/>
-                <xsd:element ref="ns2:SubmitterId" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
-                <xsd:element ref="ns2:TemplateStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:TemplateTemplateType" minOccurs="0"/>
-                <xsd:element ref="ns2:ThumbnailAssetId" minOccurs="0"/>
-                <xsd:element ref="ns2:TimesCloned" minOccurs="0"/>
-                <xsd:element ref="ns2:TrustLevel" minOccurs="0"/>
-                <xsd:element ref="ns2:UALocComments" minOccurs="0"/>
-                <xsd:element ref="ns2:UALocRecommendation" minOccurs="0"/>
-                <xsd:element ref="ns2:UANotes" minOccurs="0"/>
-                <xsd:element ref="ns2:TPAppVersion" minOccurs="0"/>
-                <xsd:element ref="ns2:VoteCount" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="AcquiredFrom" ma:index="1" nillable="true" ma:displayName="Acquired From" ma:default="Internal MS" ma:internalName="AcquiredFrom" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Internal MS"/>
-          <xsd:enumeration value="Community"/>
-          <xsd:enumeration value="MVP"/>
-          <xsd:enumeration value="Publisher"/>
-          <xsd:enumeration value="Partner"/>
-          <xsd:enumeration value="None"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UACurrentWords" ma:index="2" nillable="true" ma:displayName="Actual Word Count" ma:default="" ma:internalName="UACurrentWords" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPApplication" ma:index="3" nillable="true" ma:displayName="Application to Open Template With" ma:default="" ma:internalName="TPApplication">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ApprovalLog" ma:index="4" nillable="true" ma:displayName="Approval Log" ma:default="" ma:hidden="true" ma:internalName="ApprovalLog" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ApprovalStatus" ma:index="5" nillable="true" ma:displayName="Approval Status" ma:default="InProgress" ma:internalName="ApprovalStatus" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="InProgress"/>
-          <xsd:enumeration value="Rejected"/>
-          <xsd:enumeration value="Questionable"/>
-          <xsd:enumeration value="ApprovedAutomatic"/>
-          <xsd:enumeration value="ApprovedManual"/>
-          <xsd:enumeration value="On Hold"/>
-          <xsd:enumeration value="Needs Review"/>
-          <xsd:enumeration value="A Violation"/>
-          <xsd:enumeration value="Unpublished Violation"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="AssetStart" ma:index="6" nillable="true" ma:displayName="Asset Begin Date" ma:default="[Today]" ma:internalName="AssetStart" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="AssetExpire" ma:index="7" nillable="true" ma:displayName="Asset End Date" ma:default="2029-01-01T00:00:00Z" ma:internalName="AssetExpire" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="AssetId" ma:index="8" nillable="true" ma:displayName="Asset ID" ma:default="" ma:indexed="true" ma:internalName="AssetId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="IsSearchable" ma:index="9" nillable="true" ma:displayName="Asset Searchable?" ma:default="true" ma:internalName="IsSearchable" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="AssetType" ma:index="10" nillable="true" ma:displayName="Asset Type" ma:default="" ma:internalName="AssetType" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="APAuthor" ma:index="11" nillable="true" ma:displayName="Author" ma:default="" ma:list="UserInfo" ma:internalName="APAuthor" ma:readOnly="false">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:User">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="AverageRating" ma:index="12" nillable="true" ma:displayName="Average Rating" ma:internalName="AverageRating" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="BlockPublish" ma:index="13" nillable="true" ma:displayName="Block from Publishing?" ma:default="" ma:internalName="BlockPublish" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="BugNumber" ma:index="14" nillable="true" ma:displayName="Bug Number" ma:default="" ma:internalName="BugNumber" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CampaignTagsTaxHTField0" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="CampaignTagsTaxHTField0" ma:taxonomyFieldName="CampaignTags" ma:displayName="Campaigns" ma:readOnly="false" ma:default="" ma:fieldId="{04032b9e-8ee6-4e89-b9db-4ffff205d025}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="ca0e50d4-faa1-44ce-961e-bb1441c60e66" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TPClientViewer" ma:index="17" nillable="true" ma:displayName="Client Viewer" ma:default="" ma:internalName="TPClientViewer">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ClipArtFilename" ma:index="18" nillable="true" ma:displayName="Clip Art Name" ma:default="" ma:internalName="ClipArtFilename" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPCommandLine" ma:index="19" nillable="true" ma:displayName="Command Line" ma:default="" ma:internalName="TPCommandLine">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPComponent" ma:index="20" nillable="true" ma:displayName="Component" ma:default="" ma:internalName="TPComponent">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ContentItem" ma:index="21" nillable="true" ma:displayName="Content Item" ma:default="" ma:hidden="true" ma:internalName="ContentItem" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CrawlForDependencies" ma:index="23" nillable="true" ma:displayName="Crawl for Dependencies?" ma:default="true" ma:internalName="CrawlForDependencies" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CSXHash" ma:index="26" nillable="true" ma:displayName="CSX Hash" ma:default="" ma:indexed="true" ma:internalName="CSXHash" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CSXSubmissionMarket" ma:index="27" nillable="true" ma:displayName="CSX Submission Market" ma:default="" ma:list="{388FC2BA-F530-4FF7-911A-621CAE6AFBD3}" ma:internalName="CSXSubmissionMarket" ma:readOnly="false" ma:showField="MarketName" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CSXUpdate" ma:index="28" nillable="true" ma:displayName="CSX Updated?" ma:default="false" ma:internalName="CSXUpdate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="IntlLangReviewDate" ma:index="29" nillable="true" ma:displayName="Date to Complete Intl QA" ma:default="" ma:internalName="IntlLangReviewDate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="IsDeleted" ma:index="30" nillable="true" ma:displayName="Deleted?" ma:default="" ma:internalName="IsDeleted" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="APDescription" ma:index="31" nillable="true" ma:displayName="Description" ma:default="" ma:internalName="APDescription" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="DirectSourceMarket" ma:index="32" nillable="true" ma:displayName="Direct Source Market Group" ma:default="" ma:internalName="DirectSourceMarket" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Downloads" ma:index="33" nillable="true" ma:displayName="Downloads" ma:default="0" ma:hidden="true" ma:internalName="Downloads" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="DSATActionTaken" ma:index="34" nillable="true" ma:displayName="DSAT Action Taken" ma:default="" ma:internalName="DSATActionTaken" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Best Bets"/>
-          <xsd:enumeration value="Expire"/>
-          <xsd:enumeration value="Hide"/>
-          <xsd:enumeration value="None"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="APEditor" ma:index="35" nillable="true" ma:displayName="Editor" ma:default="" ma:list="UserInfo" ma:internalName="APEditor" ma:readOnly="false">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:User">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="EditorialStatus" ma:index="36" nillable="true" ma:displayName="Editorial Status" ma:default="" ma:internalName="EditorialStatus" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="EditorialTags" ma:index="37" nillable="true" ma:displayName="Editorial Tags" ma:default="" ma:internalName="EditorialTags">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPExecutable" ma:index="38" nillable="true" ma:displayName="Executable" ma:default="" ma:internalName="TPExecutable">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="FeatureTagsTaxHTField0" ma:index="40" nillable="true" ma:taxonomy="true" ma:internalName="FeatureTagsTaxHTField0" ma:taxonomyFieldName="FeatureTags" ma:displayName="Features" ma:readOnly="false" ma:default="" ma:fieldId="{5dcf7547-996b-4a0e-b7d1-0f761d14131b}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="f1ab6845-967d-4854-a0ba-4ec07f0f8113" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TPFriendlyName" ma:index="41" nillable="true" ma:displayName="Friendly Name" ma:default="" ma:internalName="TPFriendlyName">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="FriendlyTitle" ma:index="42" nillable="true" ma:displayName="Friendly Title" ma:default="" ma:description="Shorter title to be used when displaying search results" ma:internalName="FriendlyTitle" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="PrimaryImageGen" ma:index="43" nillable="true" ma:displayName="Generate Images?" ma:default="true" ma:internalName="PrimaryImageGen">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="HandoffToMSDN" ma:index="44" nillable="true" ma:displayName="Handoff To MSDN Date" ma:default="" ma:internalName="HandoffToMSDN" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="InProjectListLookup" ma:index="45" nillable="true" ma:displayName="InProjectListLookup" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="InProjectListLookup" ma:readOnly="true" ma:showField="InProjectList" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TPInstallLocation" ma:index="46" nillable="true" ma:displayName="Install Location" ma:default="" ma:internalName="TPInstallLocation">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="InternalTagsTaxHTField0" ma:index="48" nillable="true" ma:taxonomy="true" ma:internalName="InternalTagsTaxHTField0" ma:taxonomyFieldName="InternalTags" ma:displayName="Internal Tags" ma:readOnly="false" ma:default="" ma:fieldId="{e5aec8e1-0842-4156-acaa-2defcf90540a}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="82b6639e-f7fc-4c18-ad2d-003a6e707765" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="IntlLangReview" ma:index="49" nillable="true" ma:displayName="Intl Lang QA Review Required?" ma:default="" ma:internalName="IntlLangReview" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="IntlLangReviewer" ma:index="50" nillable="true" ma:displayName="Intl Lang QA Reviewer" ma:default="" ma:internalName="IntlLangReviewer" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MarketSpecific" ma:index="51" nillable="true" ma:displayName="Is Market Specific?" ma:default="" ma:internalName="MarketSpecific" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LastCompleteVersionLookup" ma:index="52" nillable="true" ma:displayName="Last Complete Version Lookup" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastCompleteVersionLookup" ma:readOnly="true" ma:showField="LastCompleteVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastHandOff" ma:index="53" nillable="true" ma:displayName="Last Hand-off" ma:default="" ma:internalName="LastHandOff" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LastModifiedDateTime" ma:index="54" nillable="true" ma:displayName="Last Modified Date" ma:default="" ma:internalName="LastModifiedDateTime" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LastPreviewErrorLookup" ma:index="55" nillable="true" ma:displayName="Last Preview Attempt Error" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewErrorLookup" ma:readOnly="true" ma:showField="LastPreviewError" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPreviewResultLookup" ma:index="56" nillable="true" ma:displayName="Last Preview Attempt Result" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewResultLookup" ma:readOnly="true" ma:showField="LastPreviewResult" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPreviewAttemptDateLookup" ma:index="57" nillable="true" ma:displayName="Last Preview Attempted On" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewAttemptDateLookup" ma:readOnly="true" ma:showField="LastPreviewAttemptDate" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPreviewedByLookup" ma:index="58" nillable="true" ma:displayName="Last Previewed By" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewedByLookup" ma:readOnly="true" ma:showField="LastPreviewedBy" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPreviewTimeLookup" ma:index="59" nillable="true" ma:displayName="Last Previewed Date" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewTimeLookup" ma:readOnly="true" ma:showField="LastPreviewTime" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPreviewVersionLookup" ma:index="60" nillable="true" ma:displayName="Last Previewed Version" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewVersionLookup" ma:readOnly="true" ma:showField="LastPreviewVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishErrorLookup" ma:index="61" nillable="true" ma:displayName="Last Publish Attempt Error" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishErrorLookup" ma:readOnly="true" ma:showField="LastPublishError" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishResultLookup" ma:index="62" nillable="true" ma:displayName="Last Publish Attempt Result" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishResultLookup" ma:readOnly="true" ma:showField="LastPublishResult" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishAttemptDateLookup" ma:index="63" nillable="true" ma:displayName="Last Publish Attempted On" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishAttemptDateLookup" ma:readOnly="true" ma:showField="LastPublishAttemptDate" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishedByLookup" ma:index="64" nillable="true" ma:displayName="Last Published By" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishedByLookup" ma:readOnly="true" ma:showField="LastPublishedBy" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishTimeLookup" ma:index="65" nillable="true" ma:displayName="Last Published Date" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishTimeLookup" ma:readOnly="true" ma:showField="LastPublishTime" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishVersionLookup" ma:index="66" nillable="true" ma:displayName="Last Published Version" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishVersionLookup" ma:readOnly="true" ma:showField="LastPublishVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TPLaunchHelpLinkType" ma:index="67" nillable="true" ma:displayName="Launch Help Link Type" ma:default="Template" ma:internalName="TPLaunchHelpLinkType">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Template"/>
-          <xsd:enumeration value="Training"/>
-          <xsd:enumeration value="URL"/>
-          <xsd:enumeration value="None"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LegacyData" ma:index="68" nillable="true" ma:displayName="Legacy Data" ma:default="" ma:internalName="LegacyData" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPLaunchHelpLink" ma:index="69" nillable="true" ma:displayName="Link to Launch Help Topic" ma:default="" ma:internalName="TPLaunchHelpLink">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocComments" ma:index="70" nillable="true" ma:displayName="Loc Approval Comments" ma:default="" ma:internalName="LocComments" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocLastLocAttemptVersionLookup" ma:index="71" nillable="true" ma:displayName="Loc Last Loc Attempt Version" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocLastLocAttemptVersionLookup" ma:readOnly="false" ma:showField="LastLocAttemptVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocLastLocAttemptVersionTypeLookup" ma:index="72" nillable="true" ma:displayName="Loc Last Loc Attempt Version Type" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocLastLocAttemptVersionTypeLookup" ma:readOnly="true" ma:showField="LastLocAttemptVersionType" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocManualTestRequired" ma:index="73" nillable="true" ma:displayName="Loc Manual Test Required" ma:default="" ma:internalName="LocManualTestRequired" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocMarketGroupTiers2" ma:index="74" nillable="true" ma:displayName="Loc Market Group Tiers" ma:internalName="LocMarketGroupTiers2" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocNewPublishedVersionLookup" ma:index="75" nillable="true" ma:displayName="Loc New Published Version Lookup" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocNewPublishedVersionLookup" ma:readOnly="true" ma:showField="NewPublishedVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocOverallHandbackStatusLookup" ma:index="76" nillable="true" ma:displayName="Loc Overall Handback Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallHandbackStatusLookup" ma:readOnly="true" ma:showField="OverallHandbackStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocOverallLocStatusLookup" ma:index="77" nillable="true" ma:displayName="Loc Overall Localize Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallLocStatusLookup" ma:readOnly="true" ma:showField="OverallLocStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocOverallPreviewStatusLookup" ma:index="78" nillable="true" ma:displayName="Loc Overall Preview Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallPreviewStatusLookup" ma:readOnly="true" ma:showField="OverallPreviewStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocOverallPublishStatusLookup" ma:index="79" nillable="true" ma:displayName="Loc Overall Publish Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallPublishStatusLookup" ma:readOnly="true" ma:showField="OverallPublishStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="IntlLocPriority" ma:index="80" nillable="true" ma:displayName="Loc Priority" ma:default="" ma:internalName="IntlLocPriority" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocProcessedForHandoffsLookup" ma:index="81" nillable="true" ma:displayName="Loc Processed For Handoffs" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocProcessedForHandoffsLookup" ma:readOnly="true" ma:showField="ProcessedForHandoffs" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocProcessedForMarketsLookup" ma:index="82" nillable="true" ma:displayName="Loc Processed For Markets" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocProcessedForMarketsLookup" ma:readOnly="true" ma:showField="ProcessedForMarkets" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocPublishedDependentAssetsLookup" ma:index="83" nillable="true" ma:displayName="Loc Published Dependent Assets" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocPublishedDependentAssetsLookup" ma:readOnly="true" ma:showField="PublishedDependentAssets" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocPublishedLinkedAssetsLookup" ma:index="84" nillable="true" ma:displayName="Loc Published Linked Assets" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocPublishedLinkedAssetsLookup" ma:readOnly="true" ma:showField="PublishedLinkedAssets" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocRecommendedHandoff" ma:index="85" nillable="true" ma:displayName="Loc Recommended Handoff" ma:default="" ma:indexed="true" ma:internalName="LocRecommendedHandoff" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocalizationTagsTaxHTField0" ma:index="87" nillable="true" ma:taxonomy="true" ma:internalName="LocalizationTagsTaxHTField0" ma:taxonomyFieldName="LocalizationTags" ma:displayName="Localization Tags" ma:readOnly="false" ma:default="" ma:fieldId="{28ca5b26-415b-4822-b35b-d9a845b1b83b}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="5b7703a5-8e8b-4b58-8b31-1cea35331da3" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MachineTranslated" ma:index="88" nillable="true" ma:displayName="Machine Translated" ma:default="" ma:internalName="MachineTranslated" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Manager" ma:index="89" nillable="true" ma:displayName="Manager" ma:hidden="true" ma:internalName="Manager" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Markets" ma:index="90" nillable="true" ma:displayName="Markets" ma:default="" ma:description="Leave blank to show in all markets" ma:list="{388FC2BA-F530-4FF7-911A-621CAE6AFBD3}" ma:internalName="Markets" ma:readOnly="false" ma:showField="MarketName" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="Milestone" ma:index="91" nillable="true" ma:displayName="Milestone" ma:default="" ma:internalName="Milestone" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPNamespace" ma:index="94" nillable="true" ma:displayName="Namespace" ma:default="" ma:internalName="TPNamespace">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="NumericId" ma:index="95" nillable="true" ma:displayName="Numeric ID" ma:default="" ma:indexed="true" ma:internalName="NumericId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="NumOfRatingsLookup" ma:index="96" nillable="true" ma:displayName="NumOfRatings" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="NumOfRatingsLookup" ma:readOnly="true" ma:showField="NumOfRatings" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="OOCacheId" ma:index="97" nillable="true" ma:displayName="OOCacheId" ma:internalName="OOCacheId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="OpenTemplate" ma:index="98" nillable="true" ma:displayName="Open Template" ma:default="true" ma:internalName="OpenTemplate">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="OriginAsset" ma:index="99" nillable="true" ma:displayName="Origin Asset" ma:default="" ma:internalName="OriginAsset" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="OriginalRelease" ma:index="100" nillable="true" ma:displayName="Original Release" ma:default="15" ma:internalName="OriginalRelease" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="14"/>
-          <xsd:enumeration value="15"/>
-          <xsd:enumeration value="16"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="OriginalSourceMarket" ma:index="101" nillable="true" ma:displayName="Original Source Market Group" ma:default="" ma:internalName="OriginalSourceMarket" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="OutputCachingOn" ma:index="102" nillable="true" ma:displayName="Output Caching" ma:default="true" ma:hidden="true" ma:internalName="OutputCachingOn" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ParentAssetId" ma:index="103" nillable="true" ma:displayName="Parent Asset Id" ma:default="" ma:internalName="ParentAssetId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="PlannedPubDate" ma:index="104" nillable="true" ma:displayName="Planned Publish Date" ma:default="" ma:indexed="true" ma:internalName="PlannedPubDate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="PolicheckWords" ma:index="105" nillable="true" ma:displayName="Policheck Words" ma:default="" ma:internalName="PolicheckWords" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="BusinessGroup" ma:index="106" nillable="true" ma:displayName="Product Division Owner" ma:default="" ma:internalName="BusinessGroup" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UAProjectedTotalWords" ma:index="107" nillable="true" ma:displayName="Projected Word Count" ma:default="" ma:internalName="UAProjectedTotalWords" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Provider" ma:index="108" nillable="true" ma:displayName="Provider" ma:default="" ma:internalName="Provider" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Providers" ma:index="109" nillable="true" ma:displayName="Providers" ma:default="" ma:internalName="Providers">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="PublishStatusLookup" ma:index="110" nillable="true" ma:displayName="Publish Status" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="PublishStatusLookup" ma:readOnly="false" ma:showField="PublishStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="PublishTargets" ma:index="111" nillable="true" ma:displayName="Publish Target" ma:default="OfficeOnlineVNext" ma:internalName="PublishTargets" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="RecommendationsModifier" ma:index="112" nillable="true" ma:displayName="Recommendations Modifier" ma:default="" ma:internalName="RecommendationsModifier" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ArtSampleDocs" ma:index="113" nillable="true" ma:displayName="Sample Docs" ma:default="" ma:hidden="true" ma:internalName="ArtSampleDocs" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ScenarioTagsTaxHTField0" ma:index="115" nillable="true" ma:taxonomy="true" ma:internalName="ScenarioTagsTaxHTField0" ma:taxonomyFieldName="ScenarioTags" ma:displayName="Scenarios" ma:readOnly="false" ma:default="" ma:fieldId="{1c8e7b99-44ca-46c8-84b8-12cd8d7cf8ee}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="4b7d5f16-e2f2-4fc0-bab3-6e8b931e57d6" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="ShowIn" ma:index="117" nillable="true" ma:displayName="Show In" ma:default="Show everywhere" ma:internalName="ShowIn" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Hide on web"/>
-          <xsd:enumeration value="On Web no search"/>
-          <xsd:enumeration value="Show everywhere"/>
-          <xsd:enumeration value="Special use only"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SourceTitle" ma:index="118" nillable="true" ma:displayName="Source Title" ma:default="" ma:indexed="true" ma:internalName="SourceTitle" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CSXSubmissionDate" ma:index="119" nillable="true" ma:displayName="Submission Date" ma:default="" ma:internalName="CSXSubmissionDate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SubmitterId" ma:index="120" nillable="true" ma:displayName="Submitter ID" ma:default="" ma:internalName="SubmitterId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="121" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c59171da-55f1-4c8b-8421-0d1d3f99d741}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAllLabel" ma:index="122" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{c59171da-55f1-4c8b-8421-0d1d3f99d741}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TemplateStatus" ma:index="123" nillable="true" ma:displayName="Template Status" ma:default="" ma:internalName="TemplateStatus">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TemplateTemplateType" ma:index="124" nillable="true" ma:displayName="Template Type" ma:default="" ma:internalName="TemplateTemplateType">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ThumbnailAssetId" ma:index="125" nillable="true" ma:displayName="Thumbnail Image Asset" ma:default="" ma:internalName="ThumbnailAssetId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TimesCloned" ma:index="126" nillable="true" ma:displayName="Times Cloned" ma:default="" ma:internalName="TimesCloned" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TrustLevel" ma:index="128" nillable="true" ma:displayName="Trust Level" ma:default="1 Microsoft Managed Content" ma:internalName="TrustLevel" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UALocComments" ma:index="129" nillable="true" ma:displayName="UA Loc Comments" ma:default="" ma:internalName="UALocComments" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UALocRecommendation" ma:index="130" nillable="true" ma:displayName="UA Loc Recommendation" ma:default="Localize" ma:internalName="UALocRecommendation" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Localize"/>
-          <xsd:enumeration value="Never Localize"/>
-          <xsd:enumeration value="Priority Localize"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UANotes" ma:index="131" nillable="true" ma:displayName="UA Notes" ma:default="" ma:internalName="UANotes" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPAppVersion" ma:index="132" nillable="true" ma:displayName="Version" ma:default="" ma:internalName="TPAppVersion">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="VoteCount" ma:index="133" nillable="true" ma:displayName="Vote Count" ma:default="" ma:internalName="VoteCount" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="22" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="127" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2B99CB1-8E2B-4A06-BE97-F0CCC71A7538}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE70CA04-6118-4D7D-973A-6229EC59A34E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9659279B-CA79-44FF-BF15-83F6AAD0C4E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>